--- a/tp1/results/mean/strassenSeuil.xlsx
+++ b/tp1/results/mean/strassenSeuil.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Documents\01.Travaux.Poly\09.A2018\INF4705.algo\swagnalyse\tp1\results\mean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{89C66541-9FF6-4B05-9820-23444A273CCB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6D5619F3-F12B-4D40-B6B4-5B59CF6B8CB6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16458" windowHeight="5106" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="5109" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="insertion" sheetId="1" r:id="rId1"/>
@@ -727,7 +727,7 @@
                     </a:pPr>
                     <a:r>
                       <a:rPr lang="en-US" sz="1400" baseline="0"/>
-                      <a:t>f(x) = 1,4901x - 21,295</a:t>
+                      <a:t>f(x) = 2,9802x - 21,295</a:t>
                     </a:r>
                     <a:endParaRPr lang="en-US" sz="1400"/>
                   </a:p>
@@ -770,22 +770,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>18</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -839,7 +839,7 @@
         <c:axId val="1087317759"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="6"/>
+          <c:min val="3"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -863,13 +863,27 @@
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
                   <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
+                      <a:sysClr val="windowText" lastClr="000000">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      </a:sysClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -877,9 +891,38 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>Taille</a:t>
+                  <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Taille de l'exemplaire (log</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="-25000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>2</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>2</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="30000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>N</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-CA" sz="1400">
+                  <a:effectLst/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -895,13 +938,27 @@
             <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
                 <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
+                    <a:sysClr val="windowText" lastClr="000000">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    </a:sysClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -994,9 +1051,26 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>Temps</a:t>
+                  <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Temps (log</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="-25000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>2</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>y)</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-CA" sz="1400">
+                  <a:effectLst/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2012,101 +2086,101 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="1">
-        <v>256</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1">
         <v>1.3973236083984349E-3</v>
       </c>
       <c r="E1">
         <f>LOG(A1,2)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <f>LOG(B1,2)</f>
         <v>-9.4831181091788057</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
-        <v>1024</v>
+        <v>32</v>
       </c>
       <c r="B2" s="1">
         <v>1.06720685958862E-2</v>
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E6" si="0">LOG(A2,2)</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <f t="shared" ref="F2:F6" si="1">LOG(B2,2)</f>
         <v>-6.5500163450298823</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
-        <v>4096</v>
+        <v>64</v>
       </c>
       <c r="B3" s="1">
         <v>0.11173708438873257</v>
       </c>
       <c r="E3">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F3">
         <f t="shared" si="1"/>
         <v>-3.1618200139502544</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
-        <v>16384</v>
+        <v>128</v>
       </c>
       <c r="B4" s="1">
         <v>0.87236082553863381</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F4">
         <f t="shared" si="1"/>
         <v>-0.19700310949157662</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
-        <v>65536</v>
+        <v>256</v>
       </c>
       <c r="B5" s="1">
         <v>5.6250489950179992</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
         <v>2.4918656624739692</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
-        <v>262144</v>
+        <v>512</v>
       </c>
       <c r="B6" s="1">
         <v>41.073178339004471</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>

--- a/tp1/results/mean/strassenSeuil.xlsx
+++ b/tp1/results/mean/strassenSeuil.xlsx
@@ -8,15 +8,107 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Documents\01.Travaux.Poly\09.A2018\INF4705.algo\swagnalyse\tp1\results\mean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6D5619F3-F12B-4D40-B6B4-5B59CF6B8CB6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3DA7FA4F-8234-4A60-B13A-B000C133B285}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="5109" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16458" windowHeight="5112" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="insertion" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="179017"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+  <si>
+    <t>x (2^N)</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>logx</t>
+  </si>
+  <si>
+    <t>logy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.0 </t>
+  </si>
+  <si>
+    <t>f(x) x^2.807355</t>
+  </si>
+  <si>
+    <t>y/f(x)</t>
+  </si>
+  <si>
+    <t>x y/f(x)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>f(x) y</t>
+  </si>
+  <si>
+    <t>espace</t>
+  </si>
+  <si>
+    <t>strass</t>
+  </si>
+  <si>
+    <t>pour test rapport</t>
+  </si>
+  <si>
+    <t>rapport</t>
+  </si>
+  <si>
+    <t>pour test constantes</t>
+  </si>
+  <si>
+    <t>constatnes</t>
+  </si>
+  <si>
+    <t>f(x) = n^2.807355</t>
+  </si>
+  <si>
+    <t>16.0 5.81975554533008e-07</t>
+  </si>
+  <si>
+    <t>32.0 6.34977432799703e-07</t>
+  </si>
+  <si>
+    <t>64.0 9.49749238572302e-07</t>
+  </si>
+  <si>
+    <t>128.0 1.05927740947379e-06</t>
+  </si>
+  <si>
+    <t>256.0 9.75757283529392e-07</t>
+  </si>
+  <si>
+    <t>512.0 1.01783115368099e-06</t>
+  </si>
+  <si>
+    <t>2401,00051886146 0,00139732360839843</t>
+  </si>
+  <si>
+    <t>16807,0045400379 0,0106720685958862</t>
+  </si>
+  <si>
+    <t>117649,038136319 0,111737084388733</t>
+  </si>
+  <si>
+    <t>823543,311446613 0,872360825538634</t>
+  </si>
+  <si>
+    <t>5764803,49157298 5,625048995018</t>
+  </si>
+  <si>
+    <t>40353626,6211378 41,0731783390045</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -157,7 +249,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -335,6 +427,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -498,9 +596,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2083,15 +2183,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:Y9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Y6" sqref="Y1:Y6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="13" max="13" width="11.9453125" customWidth="1"/>
+    <col min="21" max="21" width="8.83984375" customWidth="1"/>
+    <col min="24" max="24" width="8.83984375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1">
         <v>16</v>
       </c>
@@ -2106,8 +2211,34 @@
         <f>LOG(B1,2)</f>
         <v>-9.4831181091788057</v>
       </c>
+      <c r="K1">
+        <f>A1^2.807355</f>
+        <v>2401.000518861455</v>
+      </c>
+      <c r="L1">
+        <f>B1</f>
+        <v>1.3973236083984349E-3</v>
+      </c>
+      <c r="M1">
+        <f>L1/K1</f>
+        <v>5.8197555453300792E-7</v>
+      </c>
+      <c r="N1" t="str">
+        <f>_xlfn.CONCAT(A1,$I$7,M1)</f>
+        <v>16.0 5,81975554533008E-07</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" t="str">
+        <f>_xlfn.CONCAT(K1,$T$7,L1)</f>
+        <v>2401,00051886146 0,00139732360839843</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>32</v>
       </c>
@@ -2122,8 +2253,34 @@
         <f t="shared" ref="F2:F6" si="1">LOG(B2,2)</f>
         <v>-6.5500163450298823</v>
       </c>
+      <c r="K2" s="1">
+        <f t="shared" ref="K2:K6" si="2">A2^2.807355</f>
+        <v>16807.004540037862</v>
+      </c>
+      <c r="L2" s="1">
+        <f t="shared" ref="L2:L6" si="3">B2</f>
+        <v>1.06720685958862E-2</v>
+      </c>
+      <c r="M2" s="1">
+        <f t="shared" ref="M2:M6" si="4">L2/K2</f>
+        <v>6.3497743279970333E-7</v>
+      </c>
+      <c r="N2" s="1" t="str">
+        <f t="shared" ref="N2:N6" si="5">_xlfn.CONCAT(A2,$I$7,M2)</f>
+        <v>32.0 6,34977432799703E-07</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U2" s="1" t="str">
+        <f t="shared" ref="U2:U6" si="6">_xlfn.CONCAT(K2,$T$7,L2)</f>
+        <v>16807,0045400379 0,0106720685958862</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>64</v>
       </c>
@@ -2138,8 +2295,34 @@
         <f t="shared" si="1"/>
         <v>-3.1618200139502544</v>
       </c>
+      <c r="K3" s="1">
+        <f t="shared" si="2"/>
+        <v>117649.03813631889</v>
+      </c>
+      <c r="L3" s="1">
+        <f t="shared" si="3"/>
+        <v>0.11173708438873257</v>
+      </c>
+      <c r="M3" s="1">
+        <f t="shared" si="4"/>
+        <v>9.4974923857230192E-7</v>
+      </c>
+      <c r="N3" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>64.0 9,49749238572302E-07</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U3" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>117649,038136319 0,111737084388733</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>128</v>
       </c>
@@ -2154,8 +2337,34 @@
         <f t="shared" si="1"/>
         <v>-0.19700310949157662</v>
       </c>
+      <c r="K4" s="1">
+        <f t="shared" si="2"/>
+        <v>823543.31144661317</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" si="3"/>
+        <v>0.87236082553863381</v>
+      </c>
+      <c r="M4" s="1">
+        <f t="shared" si="4"/>
+        <v>1.0592774094737886E-6</v>
+      </c>
+      <c r="N4" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>128.0 1,05927740947379E-06</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>20</v>
+      </c>
+      <c r="U4" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>823543,311446613 0,872360825538634</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>256</v>
       </c>
@@ -2170,8 +2379,34 @@
         <f t="shared" si="1"/>
         <v>2.4918656624739692</v>
       </c>
+      <c r="K5" s="1">
+        <f t="shared" si="2"/>
+        <v>5764803.4915729761</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="3"/>
+        <v>5.6250489950179992</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" si="4"/>
+        <v>9.7575728352939156E-7</v>
+      </c>
+      <c r="N5" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>256.0 9,75757283529392E-07</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>21</v>
+      </c>
+      <c r="U5" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>5764803,49157298 5,625048995018</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>512</v>
       </c>
@@ -2186,6 +2421,153 @@
         <f t="shared" si="1"/>
         <v>5.3601246856545854</v>
       </c>
+      <c r="K6" s="1">
+        <f t="shared" si="2"/>
+        <v>40353626.621137805</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="3"/>
+        <v>41.073178339004471</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="4"/>
+        <v>1.0178311536809868E-6</v>
+      </c>
+      <c r="N6" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>512.0 1,01783115368099E-06</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>22</v>
+      </c>
+      <c r="U6" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>40353626,6211378 41,0731783390045</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tp1/results/mean/strassenSeuil.xlsx
+++ b/tp1/results/mean/strassenSeuil.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Documents\01.Travaux.Poly\09.A2018\INF4705.algo\swagnalyse\tp1\results\mean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3DA7FA4F-8234-4A60-B13A-B000C133B285}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{30F55C3E-710C-4A1C-B63E-00AF2EBEF15B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16458" windowHeight="5112" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1289,7 +1289,414 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>insertion!$K$1:$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2401.000518861455</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16807.004540037862</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>117649.03813631889</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>823543.31144661317</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5764803.4915729761</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40353626.621137805</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>insertion!$L$1:$L$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.3973236083984349E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.06720685958862E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11173708438873257</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.87236082553863381</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.6250489950179992</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41.073178339004471</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DA96-4958-98F3-27066163B535}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="396280208"/>
+        <c:axId val="396281848"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="396280208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="396281848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="396281848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="396280208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1845,6 +2252,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1878,6 +2801,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>773595</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>5</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>4969</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9944</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9EA5268-3320-42B8-AC65-FD9F03E08E3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2185,8 +3144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Y6" sqref="Y1:Y6"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
